--- a/data_format.xlsx
+++ b/data_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A7ACFA-9FC1-4857-BE4A-C249CC283B29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1E9837-EA7C-4313-81B2-E87B625B957A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>site_name</t>
   </si>
@@ -70,12 +70,6 @@
     <t>data_sorted_by</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>length_measure</t>
   </si>
   <si>
@@ -95,6 +89,9 @@
   </si>
   <si>
     <t>table_figure</t>
+  </si>
+  <si>
+    <t>sampling_interval</t>
   </si>
 </sst>
 </file>
@@ -412,93 +409,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.86328125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
       <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" t="s">
-        <v>12</v>
-      </c>
       <c r="V1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="W1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data_format.xlsx
+++ b/data_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1E9837-EA7C-4313-81B2-E87B625B957A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE306C6-AD2F-4500-A58D-3D74B68C4AEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>fish_id</t>
-  </si>
-  <si>
     <t>data_sorted_by</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>sampling_interval</t>
+  </si>
+  <si>
+    <t>sample_id</t>
   </si>
 </sst>
 </file>
@@ -412,63 +412,64 @@
   <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="3" max="4" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
         <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
       </c>
       <c r="Q1" t="s">
         <v>9</v>
@@ -483,13 +484,13 @@
         <v>12</v>
       </c>
       <c r="U1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="X1" t="s">
         <v>13</v>

--- a/data_format.xlsx
+++ b/data_format.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE306C6-AD2F-4500-A58D-3D74B68C4AEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9B2427-49F4-42C8-91E1-7906D5B10E17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -411,15 +419,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="4" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="1" max="17" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">

--- a/data_format.xlsx
+++ b/data_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Documents\GitHub\Freshwater-Fish-Diet-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9B2427-49F4-42C8-91E1-7906D5B10E17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC80BAA3-BBFB-48F3-B0B7-47B75217B7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29985" yWindow="3975" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,13 +106,34 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,8 +156,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,18 +446,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AJ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="13.7109375" customWidth="1"/>
+    <col min="1" max="17" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,6 +530,86 @@
       <c r="X1" t="s">
         <v>13</v>
       </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="1"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_format.xlsx
+++ b/data_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Documents\GitHub\Freshwater-Fish-Diet-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC80BAA3-BBFB-48F3-B0B7-47B75217B7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42997E5-CFF3-4F3B-BE5F-35A87DC5F4B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="3975" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,16 +121,16 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,15 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -446,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AJ3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,7 +451,7 @@
     <col min="1" max="17" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,88 +524,571 @@
       <c r="X1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="1"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="1"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="2"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data_format.xlsx
+++ b/data_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Documents\GitHub\Freshwater-Fish-Diet-Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC80BAA3-BBFB-48F3-B0B7-47B75217B7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CFD420-4521-4CB5-8B34-5260C4A88FD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="3975" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,16 +448,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AJ3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X1" sqref="A1:X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="17" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +541,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -576,7 +576,7 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>

--- a/data_format.xlsx
+++ b/data_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Documents\GitHub\Freshwater-Fish-Diet-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CFD420-4521-4CB5-8B34-5260C4A88FD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCABB62B-BB84-4483-8138-2CA54CB39BFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -159,13 +159,13 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,18 +446,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X1" sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="13.6640625" customWidth="1"/>
+    <col min="1" max="17" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,75 +540,77 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
+      <c r="AE2" s="4"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="1"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="Y3" s="4"/>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="Y3" s="3"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="3"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="2"/>
       <c r="AH3" s="1"/>
     </row>
   </sheetData>

--- a/data_format.xlsx
+++ b/data_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Documents\GitHub\Freshwater-Fish-Diet-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCABB62B-BB84-4483-8138-2CA54CB39BFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1029D642-B59F-452A-9121-957C4059C26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,10 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,12 +119,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -156,16 +147,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,88 +519,628 @@
       <c r="X1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
       <c r="AI2" s="3"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
       <c r="T3" s="6"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="1"/>
+      <c r="AH3" s="2"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="2"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="2"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_format.xlsx
+++ b/data_format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Documents\GitHub\Freshwater-Fish-Diet-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1029D642-B59F-452A-9121-957C4059C26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841B6B91-EBA1-4DFB-BA53-3E6AB4372E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +128,12 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF2B2A29"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,14 +156,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AP21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AH3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +458,7 @@
     <col min="1" max="17" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,228 +531,286 @@
       <c r="X1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="1"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="3"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="9"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="7"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="8"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="8"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -752,25 +822,25 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="2"/>
@@ -782,25 +852,25 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="2"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
@@ -812,25 +882,25 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -842,25 +912,25 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -872,25 +942,25 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
@@ -902,25 +972,25 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -932,25 +1002,25 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
@@ -962,25 +1032,25 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -993,24 +1063,24 @@
       <c r="AH16" s="2"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -1023,24 +1093,24 @@
       <c r="AH17" s="2"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -1053,24 +1123,24 @@
       <c r="AH18" s="2"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -1083,24 +1153,24 @@
       <c r="AH19" s="2"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -1113,24 +1183,24 @@
       <c r="AH20" s="2"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
